--- a/OTRAS_ENG - York/data/award.xlsx
+++ b/OTRAS_ENG - York/data/award.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\OTRAS_ENG - York\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A3F01-4D7F-49FF-B175-8009F5C42C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23FBCFD-D1CB-4112-8596-E0C80B3617BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>what</t>
   </si>
@@ -124,13 +124,22 @@
     <t>Ig Nobel Prize</t>
   </si>
   <si>
-    <t>For ‘trying to quantify the relationship between different countries’ national income inequality and the average amount of mouth-to-mouth kissing’ (Watkins,, et al., 2019).</t>
-  </si>
-  <si>
     <t>Cambridge, MA, USA.</t>
   </si>
   <si>
     <t>Minciencias | Ministry of Science, Technology and Innovation</t>
+  </si>
+  <si>
+    <t>For ‘trying to quantify the relationship between different countries’ national income inequality and the average amount of mouth-to-mouth kissing’ (Watkins, et al., 2019).</t>
+  </si>
+  <si>
+    <t>25% of annual tuition fees</t>
+  </si>
+  <si>
+    <t>Full tuition and living costs (aprox. £120.000)</t>
+  </si>
+  <si>
+    <t>50% of all tuition and living costs (aprox. U$25.000)</t>
   </si>
 </sst>
 </file>
@@ -623,7 +632,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -631,6 +640,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -990,13 +1002,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
@@ -1030,10 +1042,10 @@
         <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,10 +1121,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,6 +1160,9 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1158,6 +1176,9 @@
       </c>
       <c r="D10" t="s">
         <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/OTRAS_ENG - York/data/award.xlsx
+++ b/OTRAS_ENG - York/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\OTRAS_ENG - York\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23FBCFD-D1CB-4112-8596-E0C80B3617BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127CB816-8DAC-4719-90E4-CC43900F180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -106,12 +106,6 @@
     <t>Dic. 2019</t>
   </si>
   <si>
-    <t>COP$5.000.000</t>
-  </si>
-  <si>
-    <t>COP$7.000.000</t>
-  </si>
-  <si>
     <t>VI Excellence Awards</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>Ig Nobel Prize</t>
   </si>
   <si>
-    <t>Cambridge, MA, USA.</t>
-  </si>
-  <si>
     <t>Minciencias | Ministry of Science, Technology and Innovation</t>
   </si>
   <si>
@@ -136,10 +127,19 @@
     <t>25% of annual tuition fees</t>
   </si>
   <si>
-    <t>Full tuition and living costs (aprox. £120.000)</t>
-  </si>
-  <si>
-    <t>50% of all tuition and living costs (aprox. U$25.000)</t>
+    <t>COP$7,000,000</t>
+  </si>
+  <si>
+    <t>COP$5,000,000</t>
+  </si>
+  <si>
+    <t>Full tuition and living costs (aprox. £120,000)</t>
+  </si>
+  <si>
+    <t>50% of all tuition and living costs (aprox. US$25,000)</t>
+  </si>
+  <si>
+    <t>Cambridge, MA, USA</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,19 +1033,19 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,12 +1079,12 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1096,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,13 +1121,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
